--- a/data/trans_dic/P36B02_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,24; 96,04</t>
+          <t>91,79; 96,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>89,64; 94,67</t>
+          <t>89,04; 94,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,65; 95,56</t>
+          <t>90,28; 95,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84,25; 90,75</t>
+          <t>84,68; 90,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,74; 98,66</t>
+          <t>94,83; 98,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,03; 97,14</t>
+          <t>92,26; 97,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,75; 96,17</t>
+          <t>90,67; 96,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>82,8; 88,74</t>
+          <t>83,26; 88,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,71; 96,67</t>
+          <t>93,51; 96,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>91,55; 95,27</t>
+          <t>91,54; 95,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>91,6; 95,36</t>
+          <t>91,56; 95,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>84,92; 88,95</t>
+          <t>84,7; 89,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,57; 95,28</t>
+          <t>89,86; 94,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91,4; 96,83</t>
+          <t>91,68; 97,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,74; 94,77</t>
+          <t>88,25; 94,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,83; 91,92</t>
+          <t>85,81; 91,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,41; 95,61</t>
+          <t>90,66; 95,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,89; 97,46</t>
+          <t>92,64; 97,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,28; 96,32</t>
+          <t>91,24; 96,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,5; 88,79</t>
+          <t>82,67; 88,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,86; 94,91</t>
+          <t>90,99; 94,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,37; 96,72</t>
+          <t>93,01; 96,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,16; 94,83</t>
+          <t>90,92; 94,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>85,43; 89,61</t>
+          <t>85,58; 89,72</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,16; 93,96</t>
+          <t>89,27; 93,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,04; 94,98</t>
+          <t>90,99; 94,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,19; 92,54</t>
+          <t>86,92; 92,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,86; 96,65</t>
+          <t>85,75; 97,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,85; 94,7</t>
+          <t>85,89; 94,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,78; 96,93</t>
+          <t>91,25; 96,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,92; 97,06</t>
+          <t>89,31; 97,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,56; 91,62</t>
+          <t>83,45; 91,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,7; 93,65</t>
+          <t>89,56; 93,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>91,66; 94,96</t>
+          <t>91,62; 95,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88,7; 93,39</t>
+          <t>88,49; 93,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>86,49; 96,05</t>
+          <t>86,41; 96,51</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,13; 93,4</t>
+          <t>90,36; 93,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,7; 94,0</t>
+          <t>90,69; 93,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,81; 92,55</t>
+          <t>88,96; 92,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,44; 89,74</t>
+          <t>85,28; 89,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,48; 95,9</t>
+          <t>92,36; 95,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,64; 94,64</t>
+          <t>90,55; 94,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,41; 95,54</t>
+          <t>92,09; 95,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,57; 96,31</t>
+          <t>89,72; 96,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,46; 93,84</t>
+          <t>91,57; 93,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91,24; 93,82</t>
+          <t>91,16; 93,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90,87; 93,39</t>
+          <t>91,01; 93,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,31; 93,32</t>
+          <t>88,24; 92,88</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,15; 94,79</t>
+          <t>89,1; 95,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>90,25; 94,88</t>
+          <t>90,38; 94,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,95; 94,48</t>
+          <t>90,1; 94,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,05; 88,12</t>
+          <t>81,27; 88,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,31; 96,4</t>
+          <t>92,01; 96,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,33; 95,89</t>
+          <t>92,14; 95,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,8; 95,31</t>
+          <t>91,71; 95,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>61,8; 91,92</t>
+          <t>60,46; 91,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>91,76; 95,15</t>
+          <t>91,87; 95,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>92,1; 95,04</t>
+          <t>92,22; 95,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>91,62; 94,21</t>
+          <t>91,52; 94,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>69,17; 89,39</t>
+          <t>69,81; 89,43</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>94,17; 98,26</t>
+          <t>94,21; 98,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,89; 98,55</t>
+          <t>94,1; 98,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,25; 96,19</t>
+          <t>90,62; 96,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,82; 93,24</t>
+          <t>80,42; 93,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,71; 95,21</t>
+          <t>92,7; 95,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>92,81; 95,69</t>
+          <t>92,86; 95,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,57; 95,4</t>
+          <t>92,49; 95,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>86,8; 90,99</t>
+          <t>86,9; 91,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,53; 95,69</t>
+          <t>93,42; 95,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>93,36; 95,86</t>
+          <t>93,58; 95,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>92,63; 95,25</t>
+          <t>92,82; 95,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>86,21; 90,92</t>
+          <t>86,77; 90,97</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,95; 93,78</t>
+          <t>91,94; 93,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>92,29; 94,13</t>
+          <t>92,23; 94,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90,77; 92,72</t>
+          <t>90,74; 92,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>86,89; 91,19</t>
+          <t>86,92; 91,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,44; 95,03</t>
+          <t>93,39; 95,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,31; 94,98</t>
+          <t>93,39; 94,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,28; 94,84</t>
+          <t>93,15; 94,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>81,31; 90,41</t>
+          <t>80,9; 90,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,87; 94,15</t>
+          <t>92,98; 94,2</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>93,11; 94,36</t>
+          <t>93,08; 94,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>92,26; 93,51</t>
+          <t>92,2; 93,48</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>84,87; 89,77</t>
+          <t>84,77; 89,64</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>446504</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>404202</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>399824</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>444697</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>297739</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>297810</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>325676</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>385811</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>744244</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>702012</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>725500</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>830507</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>434895; 455339</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>389307; 414311</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>386423; 409342</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>427820; 459383</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>290830; 302564</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>289289; 304575</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>314677; 333382</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>372557; 396269</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>729767; 753951</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>687283; 715177</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>709652; 737907</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>806898; 848079</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>340321</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>397193</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>344274</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>403055</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>347663</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>323101</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>348460</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>329414</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>687984</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>720295</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>692734</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>732469</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>329720; 348514</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>383961; 406215</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>330341; 354487</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>388030; 415326</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>337149; 355767</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>313148; 329363</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>337767; 356220</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>316282; 339203</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>672235; 700676</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>703889; 731237</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>676941; 705769</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>714387; 748975</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>497508</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>586301</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>469986</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>612704</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>153111</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>244827</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>156748</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>147032</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>650619</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>831127</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>626733</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>759736</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>483393; 508380</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>572698; 597416</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>453635; 482370</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>573030; 650468</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>144101; 158817</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>236413; 251144</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>148358; 161819</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>139285; 153215</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>635268; 664958</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>814060; 844637</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>608849; 640972</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>721705; 806009</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1784</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1668</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1755</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2106</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1139131</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1072509</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1043628</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>908797</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>674156</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>709615</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>777211</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>903537</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1813288</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1782124</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1820840</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1812333</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1118941; 1158193</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1051159; 1087241</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1021801; 1062016</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>882540; 928784</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>659718; 684743</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>692401; 723135</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>760579; 788663</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>877500; 942001</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1788034; 1834137</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1753673; 1804562</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1796945; 1845377</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1776111; 1869635</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1172</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>824</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1115</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1643</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>324494</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>474562</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>572989</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>403505</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>536416</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>717053</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>691881</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>704441</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>860910</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1191615</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1264870</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1107946</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>312349; 333783</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>461496; 484724</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>558431; 584586</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>386060; 419786</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>522293; 546097</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>700734; 729376</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>677041; 703815</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>508647; 772244</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>843539; 874835</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1172234; 1207665</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1242893; 1282570</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>918939; 1177239</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>984</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1239</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1184</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1139</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>288229</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>257299</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>268737</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>211386</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1175778</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1045530</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1018121</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>679100</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1464005</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1302830</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1286856</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>890486</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>280948; 293242</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>250276; 262102</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>259345; 276130</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>193413; 224907</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1157557; 1189986</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1029169; 1058890</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>999907; 1032035</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>661651; 693645</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1445230; 1480178</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1286107; 1318149</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1269164; 1303768</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>869319; 911403</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2979</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2994</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2958</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2913</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3107</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3095</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>6086</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>6089</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>6078</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>7602</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3036188</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3192066</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3099437</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2984143</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3184863</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3337936</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3318097</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3149334</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>6221051</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>6530003</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>6417534</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>6133477</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3005795; 3061419</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3155135; 3219923</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3065798; 3132965</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2934382; 3073948</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3153681; 3208161</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3309892; 3363807</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3286831; 3344281</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2894456; 3235011</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6179963; 6260489</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6483469; 6567355</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>6368945; 6457025</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>5894416; 6233535</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>